--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd72</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J2">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30145983299716</v>
+        <v>1.626869333333333</v>
       </c>
       <c r="N2">
-        <v>1.30145983299716</v>
+        <v>4.880608</v>
       </c>
       <c r="O2">
-        <v>0.01744979253941711</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="P2">
-        <v>0.01744979253941711</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="Q2">
-        <v>1.878137783179028</v>
+        <v>0.2196246485511111</v>
       </c>
       <c r="R2">
-        <v>1.878137783179028</v>
+        <v>1.97662183696</v>
       </c>
       <c r="S2">
-        <v>8.413888453535592E-05</v>
+        <v>8.329426455510854E-06</v>
       </c>
       <c r="T2">
-        <v>8.413888453535592E-05</v>
+        <v>8.329426455510854E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J3">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>16.773445625961</v>
+        <v>0.5129926666666668</v>
       </c>
       <c r="N3">
-        <v>16.773445625961</v>
+        <v>1.538978</v>
       </c>
       <c r="O3">
-        <v>0.2248960274633781</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="P3">
-        <v>0.2248960274633781</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="Q3">
-        <v>24.20577353637398</v>
+        <v>0.06925315501222223</v>
       </c>
       <c r="R3">
-        <v>24.20577353637398</v>
+        <v>0.62327839511</v>
       </c>
       <c r="S3">
-        <v>0.001084396897238613</v>
+        <v>2.626476879038264E-06</v>
       </c>
       <c r="T3">
-        <v>0.001084396897238613</v>
+        <v>2.626476879038264E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J4">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.5965431416488</v>
+        <v>25.132292</v>
       </c>
       <c r="N4">
-        <v>53.5965431416488</v>
+        <v>75.39687599999999</v>
       </c>
       <c r="O4">
-        <v>0.7186150005858315</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="P4">
-        <v>0.7186150005858315</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="Q4">
-        <v>77.34521663284791</v>
+        <v>3.392817532846666</v>
       </c>
       <c r="R4">
-        <v>77.34521663284791</v>
+        <v>30.53535779562</v>
       </c>
       <c r="S4">
-        <v>0.003464996183942352</v>
+        <v>0.0001286751022858773</v>
       </c>
       <c r="T4">
-        <v>0.003464996183942352</v>
+        <v>0.0001286751022858774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H5">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I5">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J5">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.96505700051637</v>
+        <v>53.83825400000001</v>
       </c>
       <c r="N5">
-        <v>1.96505700051637</v>
+        <v>161.514762</v>
       </c>
       <c r="O5">
-        <v>0.02634721112227728</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="P5">
-        <v>0.02634721112227728</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="Q5">
-        <v>2.835775415573888</v>
+        <v>7.268074559576667</v>
       </c>
       <c r="R5">
-        <v>2.835775415573888</v>
+        <v>65.41267103619001</v>
       </c>
       <c r="S5">
-        <v>0.0001270401897007301</v>
+        <v>0.000275647077486727</v>
       </c>
       <c r="T5">
-        <v>0.0001270401897007301</v>
+        <v>0.000275647077486727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.44310084380693</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H6">
-        <v>1.44310084380693</v>
+        <v>0.404995</v>
       </c>
       <c r="I6">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J6">
-        <v>0.004821769906163394</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.946606493608433</v>
+        <v>2.126792</v>
       </c>
       <c r="N6">
-        <v>0.946606493608433</v>
+        <v>6.380376</v>
       </c>
       <c r="O6">
-        <v>0.01269196828909607</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="P6">
-        <v>0.01269196828909607</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="Q6">
-        <v>1.366048629679449</v>
+        <v>0.2871133753466666</v>
       </c>
       <c r="R6">
-        <v>1.366048629679449</v>
+        <v>2.58402037812</v>
       </c>
       <c r="S6">
-        <v>6.119775074634353E-05</v>
+        <v>1.08889860956886E-05</v>
       </c>
       <c r="T6">
-        <v>6.119775074634353E-05</v>
+        <v>1.08889860956886E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>56.7501948198675</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H7">
-        <v>56.7501948198675</v>
+        <v>0.404995</v>
       </c>
       <c r="I7">
-        <v>0.1896169506972835</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="J7">
-        <v>0.1896169506972835</v>
+        <v>0.0004324871779904459</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30145983299716</v>
+        <v>1.234417666666667</v>
       </c>
       <c r="N7">
-        <v>1.30145983299716</v>
+        <v>3.703253</v>
       </c>
       <c r="O7">
-        <v>0.01744979253941711</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="P7">
-        <v>0.01744979253941711</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="Q7">
-        <v>73.85809907282106</v>
+        <v>0.1666443276372222</v>
       </c>
       <c r="R7">
-        <v>73.85809907282106</v>
+        <v>1.499798948735</v>
       </c>
       <c r="S7">
-        <v>0.003308776451624479</v>
+        <v>6.320108787603908E-06</v>
       </c>
       <c r="T7">
-        <v>0.003308776451624479</v>
+        <v>6.320108787603909E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H8">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I8">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J8">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.773445625961</v>
+        <v>1.626869333333333</v>
       </c>
       <c r="N8">
-        <v>16.773445625961</v>
+        <v>4.880608</v>
       </c>
       <c r="O8">
-        <v>0.2248960274633781</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="P8">
-        <v>0.2248960274633781</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="Q8">
-        <v>951.8963070737411</v>
+        <v>2.356686170005334</v>
       </c>
       <c r="R8">
-        <v>951.8963070737411</v>
+        <v>21.210175530048</v>
       </c>
       <c r="S8">
-        <v>0.04264409895153828</v>
+        <v>8.937905768445983E-05</v>
       </c>
       <c r="T8">
-        <v>0.04264409895153828</v>
+        <v>8.937905768445983E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H9">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I9">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J9">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>53.5965431416488</v>
+        <v>0.5129926666666668</v>
       </c>
       <c r="N9">
-        <v>53.5965431416488</v>
+        <v>1.538978</v>
       </c>
       <c r="O9">
-        <v>0.7186150005858315</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="P9">
-        <v>0.7186150005858315</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="Q9">
-        <v>3041.614264960003</v>
+        <v>0.7431222029186669</v>
       </c>
       <c r="R9">
-        <v>3041.614264960003</v>
+        <v>6.688099826268002</v>
       </c>
       <c r="S9">
-        <v>0.136261585136412</v>
+        <v>2.818345653597147E-05</v>
       </c>
       <c r="T9">
-        <v>0.136261585136412</v>
+        <v>2.818345653597147E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H10">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I10">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J10">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.96505700051637</v>
+        <v>25.132292</v>
       </c>
       <c r="N10">
-        <v>1.96505700051637</v>
+        <v>75.39687599999999</v>
       </c>
       <c r="O10">
-        <v>0.02634721112227728</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="P10">
-        <v>0.02634721112227728</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="Q10">
-        <v>111.5173676114485</v>
+        <v>36.406688455784</v>
       </c>
       <c r="R10">
-        <v>111.5173676114485</v>
+        <v>327.660196102056</v>
       </c>
       <c r="S10">
-        <v>0.004995877832383771</v>
+        <v>0.001380750457572512</v>
       </c>
       <c r="T10">
-        <v>0.004995877832383771</v>
+        <v>0.001380750457572512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.7501948198675</v>
+        <v>1.448602</v>
       </c>
       <c r="H11">
-        <v>56.7501948198675</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I11">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J11">
-        <v>0.1896169506972835</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.946606493608433</v>
+        <v>53.83825400000001</v>
       </c>
       <c r="N11">
-        <v>0.946606493608433</v>
+        <v>161.514762</v>
       </c>
       <c r="O11">
-        <v>0.01269196828909607</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="P11">
-        <v>0.01269196828909607</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="Q11">
-        <v>53.72010293003023</v>
+        <v>77.99020242090802</v>
       </c>
       <c r="R11">
-        <v>53.72010293003023</v>
+        <v>701.9118217881721</v>
       </c>
       <c r="S11">
-        <v>0.002406612325325015</v>
+        <v>0.002957835833094935</v>
       </c>
       <c r="T11">
-        <v>0.002406612325325015</v>
+        <v>0.002957835833094935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.6615799112946</v>
+        <v>1.448602</v>
       </c>
       <c r="H12">
-        <v>78.6615799112946</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I12">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J12">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30145983299716</v>
+        <v>2.126792</v>
       </c>
       <c r="N12">
-        <v>1.30145983299716</v>
+        <v>6.380376</v>
       </c>
       <c r="O12">
-        <v>0.01744979253941711</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="P12">
-        <v>0.01744979253941711</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="Q12">
-        <v>102.3748866546462</v>
+        <v>3.080875144784001</v>
       </c>
       <c r="R12">
-        <v>102.3748866546462</v>
+        <v>27.727876303056</v>
       </c>
       <c r="S12">
-        <v>0.004586302903174359</v>
+        <v>0.0001168444576070324</v>
       </c>
       <c r="T12">
-        <v>0.004586302903174359</v>
+        <v>0.0001168444576070324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.6615799112946</v>
+        <v>1.448602</v>
       </c>
       <c r="H13">
-        <v>78.6615799112946</v>
+        <v>4.345806000000001</v>
       </c>
       <c r="I13">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="J13">
-        <v>0.2628285060016857</v>
+        <v>0.004640811301457915</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.773445625961</v>
+        <v>1.234417666666667</v>
       </c>
       <c r="N13">
-        <v>16.773445625961</v>
+        <v>3.703253</v>
       </c>
       <c r="O13">
-        <v>0.2248960274633781</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="P13">
-        <v>0.2248960274633781</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="Q13">
-        <v>1319.425733494286</v>
+        <v>1.788179900768667</v>
       </c>
       <c r="R13">
-        <v>1319.425733494286</v>
+        <v>16.093619106918</v>
       </c>
       <c r="S13">
-        <v>0.05910908690391373</v>
+        <v>6.781803896300397E-05</v>
       </c>
       <c r="T13">
-        <v>0.05910908690391373</v>
+        <v>6.781803896300399E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H14">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I14">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J14">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>53.5965431416488</v>
+        <v>1.626869333333333</v>
       </c>
       <c r="N14">
-        <v>53.5965431416488</v>
+        <v>4.880608</v>
       </c>
       <c r="O14">
-        <v>0.7186150005858315</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="P14">
-        <v>0.7186150005858315</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="Q14">
-        <v>4215.988761305955</v>
+        <v>103.3791124427093</v>
       </c>
       <c r="R14">
-        <v>4215.988761305955</v>
+        <v>930.412011984384</v>
       </c>
       <c r="S14">
-        <v>0.1888725069943746</v>
+        <v>0.003920728933697721</v>
       </c>
       <c r="T14">
-        <v>0.1888725069943746</v>
+        <v>0.003920728933697721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H15">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I15">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J15">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.96505700051637</v>
+        <v>0.5129926666666668</v>
       </c>
       <c r="N15">
-        <v>1.96505700051637</v>
+        <v>1.538978</v>
       </c>
       <c r="O15">
-        <v>0.02634721112227728</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="P15">
-        <v>0.02634721112227728</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="Q15">
-        <v>154.5744882763673</v>
+        <v>32.59802461268268</v>
       </c>
       <c r="R15">
-        <v>154.5744882763673</v>
+        <v>293.3822215141441</v>
       </c>
       <c r="S15">
-        <v>0.006924798136579134</v>
+        <v>0.001236304077878054</v>
       </c>
       <c r="T15">
-        <v>0.006924798136579134</v>
+        <v>0.001236304077878054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.6615799112946</v>
+        <v>63.544816</v>
       </c>
       <c r="H16">
-        <v>78.6615799112946</v>
+        <v>190.634448</v>
       </c>
       <c r="I16">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J16">
-        <v>0.2628285060016857</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.946606493608433</v>
+        <v>25.132292</v>
       </c>
       <c r="N16">
-        <v>0.946606493608433</v>
+        <v>75.39687599999999</v>
       </c>
       <c r="O16">
-        <v>0.01269196828909607</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="P16">
-        <v>0.01269196828909607</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="Q16">
-        <v>74.46156234153013</v>
+        <v>1597.026870798272</v>
       </c>
       <c r="R16">
-        <v>74.46156234153013</v>
+        <v>14373.24183718445</v>
       </c>
       <c r="S16">
-        <v>0.00333581106364389</v>
+        <v>0.06056841959928336</v>
       </c>
       <c r="T16">
-        <v>0.00333581106364389</v>
+        <v>0.06056841959928339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>160.104519420532</v>
+        <v>63.544816</v>
       </c>
       <c r="H17">
-        <v>160.104519420532</v>
+        <v>190.634448</v>
       </c>
       <c r="I17">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J17">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.30145983299716</v>
+        <v>53.83825400000001</v>
       </c>
       <c r="N17">
-        <v>1.30145983299716</v>
+        <v>161.514762</v>
       </c>
       <c r="O17">
-        <v>0.01744979253941711</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="P17">
-        <v>0.01744979253941711</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="Q17">
-        <v>208.3696011071361</v>
+        <v>3421.141944191264</v>
       </c>
       <c r="R17">
-        <v>208.3696011071361</v>
+        <v>30790.27749772138</v>
       </c>
       <c r="S17">
-        <v>0.009334770838035113</v>
+        <v>0.129749326434883</v>
       </c>
       <c r="T17">
-        <v>0.009334770838035113</v>
+        <v>0.129749326434883</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>160.104519420532</v>
+        <v>63.544816</v>
       </c>
       <c r="H18">
-        <v>160.104519420532</v>
+        <v>190.634448</v>
       </c>
       <c r="I18">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J18">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.773445625961</v>
+        <v>2.126792</v>
       </c>
       <c r="N18">
-        <v>16.773445625961</v>
+        <v>6.380376</v>
       </c>
       <c r="O18">
-        <v>0.2248960274633781</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="P18">
-        <v>0.2248960274633781</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="Q18">
-        <v>2685.504450970911</v>
+        <v>135.146606310272</v>
       </c>
       <c r="R18">
-        <v>2685.504450970911</v>
+        <v>1216.319456792448</v>
       </c>
       <c r="S18">
-        <v>0.1203081855565265</v>
+        <v>0.005125534521737974</v>
       </c>
       <c r="T18">
-        <v>0.1203081855565265</v>
+        <v>0.005125534521737974</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>160.104519420532</v>
+        <v>63.544816</v>
       </c>
       <c r="H19">
-        <v>160.104519420532</v>
+        <v>190.634448</v>
       </c>
       <c r="I19">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950318</v>
       </c>
       <c r="J19">
-        <v>0.5349502475143427</v>
+        <v>0.2035752402950319</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>53.5965431416488</v>
+        <v>1.234417666666667</v>
       </c>
       <c r="N19">
-        <v>53.5965431416488</v>
+        <v>3.703253</v>
       </c>
       <c r="O19">
-        <v>0.7186150005858315</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="P19">
-        <v>0.7186150005858315</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="Q19">
-        <v>8581.048782295491</v>
+        <v>78.44084349548267</v>
       </c>
       <c r="R19">
-        <v>8581.048782295491</v>
+        <v>705.9675914593441</v>
       </c>
       <c r="S19">
-        <v>0.3844232724309101</v>
+        <v>0.002974926727551749</v>
       </c>
       <c r="T19">
-        <v>0.3844232724309101</v>
+        <v>0.002974926727551749</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H20">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I20">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J20">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.96505700051637</v>
+        <v>1.626869333333333</v>
       </c>
       <c r="N20">
-        <v>1.96505700051637</v>
+        <v>4.880608</v>
       </c>
       <c r="O20">
-        <v>0.02634721112227728</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="P20">
-        <v>0.02634721112227728</v>
+        <v>0.01925936046061199</v>
       </c>
       <c r="Q20">
-        <v>314.6145067016255</v>
+        <v>130.9902590514453</v>
       </c>
       <c r="R20">
-        <v>314.6145067016255</v>
+        <v>1178.912331463008</v>
       </c>
       <c r="S20">
-        <v>0.01409444711117487</v>
+        <v>0.004967901992582649</v>
       </c>
       <c r="T20">
-        <v>0.01409444711117487</v>
+        <v>0.004967901992582649</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.104519420532</v>
+        <v>80.516767</v>
       </c>
       <c r="H21">
-        <v>160.104519420532</v>
+        <v>241.550301</v>
       </c>
       <c r="I21">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J21">
-        <v>0.5349502475143427</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.946606493608433</v>
+        <v>0.5129926666666668</v>
       </c>
       <c r="N21">
-        <v>0.946606493608433</v>
+        <v>1.538978</v>
       </c>
       <c r="O21">
-        <v>0.01269196828909607</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="P21">
-        <v>0.01269196828909607</v>
+        <v>0.006072958951620725</v>
       </c>
       <c r="Q21">
-        <v>151.5559777395331</v>
+        <v>41.30451101470867</v>
       </c>
       <c r="R21">
-        <v>151.5559777395331</v>
+        <v>371.740599132378</v>
       </c>
       <c r="S21">
-        <v>0.006789571577696131</v>
+        <v>0.001566503983262098</v>
       </c>
       <c r="T21">
-        <v>0.006789571577696131</v>
+        <v>0.001566503983262098</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.32922140286671</v>
+        <v>80.516767</v>
       </c>
       <c r="H22">
-        <v>2.32922140286671</v>
+        <v>241.550301</v>
       </c>
       <c r="I22">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J22">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.30145983299716</v>
+        <v>25.132292</v>
       </c>
       <c r="N22">
-        <v>1.30145983299716</v>
+        <v>75.39687599999999</v>
       </c>
       <c r="O22">
-        <v>0.01744979253941711</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="P22">
-        <v>0.01744979253941711</v>
+        <v>0.297523507826907</v>
       </c>
       <c r="Q22">
-        <v>3.031388097988319</v>
+        <v>2023.570899139964</v>
       </c>
       <c r="R22">
-        <v>3.031388097988319</v>
+        <v>18212.13809225967</v>
       </c>
       <c r="S22">
-        <v>0.0001358034620477995</v>
+        <v>0.07674541584058929</v>
       </c>
       <c r="T22">
-        <v>0.0001358034620477995</v>
+        <v>0.0767454158405893</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.32922140286671</v>
+        <v>80.516767</v>
       </c>
       <c r="H23">
-        <v>2.32922140286671</v>
+        <v>241.550301</v>
       </c>
       <c r="I23">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J23">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.773445625961</v>
+        <v>53.83825400000001</v>
       </c>
       <c r="N23">
-        <v>16.773445625961</v>
+        <v>161.514762</v>
       </c>
       <c r="O23">
-        <v>0.2248960274633781</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="P23">
-        <v>0.2248960274633781</v>
+        <v>0.6373531783474429</v>
       </c>
       <c r="Q23">
-        <v>39.06906855180937</v>
+        <v>4334.882153004819</v>
       </c>
       <c r="R23">
-        <v>39.06906855180937</v>
+        <v>39013.93937704337</v>
       </c>
       <c r="S23">
-        <v>0.001750259154160922</v>
+        <v>0.1644035964312874</v>
       </c>
       <c r="T23">
-        <v>0.001750259154160922</v>
+        <v>0.1644035964312874</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.32922140286671</v>
+        <v>80.516767</v>
       </c>
       <c r="H24">
-        <v>2.32922140286671</v>
+        <v>241.550301</v>
       </c>
       <c r="I24">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J24">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.5965431416488</v>
+        <v>2.126792</v>
       </c>
       <c r="N24">
-        <v>53.5965431416488</v>
+        <v>6.380376</v>
       </c>
       <c r="O24">
-        <v>0.7186150005858315</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="P24">
-        <v>0.7186150005858315</v>
+        <v>0.02517759288560722</v>
       </c>
       <c r="Q24">
-        <v>124.8382154051974</v>
+        <v>171.242415921464</v>
       </c>
       <c r="R24">
-        <v>124.8382154051974</v>
+        <v>1541.181743293176</v>
       </c>
       <c r="S24">
-        <v>0.005592639840192468</v>
+        <v>0.006494494670300609</v>
       </c>
       <c r="T24">
-        <v>0.005592639840192468</v>
+        <v>0.006494494670300609</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.32922140286671</v>
+        <v>80.516767</v>
       </c>
       <c r="H25">
-        <v>2.32922140286671</v>
+        <v>241.550301</v>
       </c>
       <c r="I25">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="J25">
-        <v>0.007782525880524646</v>
+        <v>0.257947401874672</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.96505700051637</v>
+        <v>1.234417666666667</v>
       </c>
       <c r="N25">
-        <v>1.96505700051637</v>
+        <v>3.703253</v>
       </c>
       <c r="O25">
-        <v>0.02634721112227728</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="P25">
-        <v>0.02634721112227728</v>
+        <v>0.01461340152781021</v>
       </c>
       <c r="Q25">
-        <v>4.577052823455789</v>
+        <v>99.39131964768367</v>
       </c>
       <c r="R25">
-        <v>4.577052823455789</v>
+        <v>894.521876829153</v>
       </c>
       <c r="S25">
-        <v>0.0002050478524387697</v>
+        <v>0.003769488956650006</v>
       </c>
       <c r="T25">
-        <v>0.0002050478524387697</v>
+        <v>0.003769488956650006</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H26">
+        <v>492.276619</v>
+      </c>
+      <c r="I26">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J26">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.626869333333333</v>
+      </c>
+      <c r="N26">
+        <v>4.880608</v>
+      </c>
+      <c r="O26">
+        <v>0.01925936046061199</v>
+      </c>
+      <c r="P26">
+        <v>0.01925936046061199</v>
+      </c>
+      <c r="Q26">
+        <v>266.9565783227058</v>
+      </c>
+      <c r="R26">
+        <v>2402.609204904352</v>
+      </c>
+      <c r="S26">
+        <v>0.01012452473173258</v>
+      </c>
+      <c r="T26">
+        <v>0.01012452473173258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H27">
+        <v>492.276619</v>
+      </c>
+      <c r="I27">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J27">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.5129926666666668</v>
+      </c>
+      <c r="N27">
+        <v>1.538978</v>
+      </c>
+      <c r="O27">
+        <v>0.006072958951620725</v>
+      </c>
+      <c r="P27">
+        <v>0.006072958951620725</v>
+      </c>
+      <c r="Q27">
+        <v>84.17809850615357</v>
+      </c>
+      <c r="R27">
+        <v>757.602886555382</v>
+      </c>
+      <c r="S27">
+        <v>0.003192516346855218</v>
+      </c>
+      <c r="T27">
+        <v>0.003192516346855218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H28">
+        <v>492.276619</v>
+      </c>
+      <c r="I28">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J28">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.132292</v>
+      </c>
+      <c r="N28">
+        <v>75.39687599999999</v>
+      </c>
+      <c r="O28">
+        <v>0.297523507826907</v>
+      </c>
+      <c r="P28">
+        <v>0.297523507826907</v>
+      </c>
+      <c r="Q28">
+        <v>4124.013244493583</v>
+      </c>
+      <c r="R28">
+        <v>37116.11920044224</v>
+      </c>
+      <c r="S28">
+        <v>0.1564062378616301</v>
+      </c>
+      <c r="T28">
+        <v>0.1564062378616301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H29">
+        <v>492.276619</v>
+      </c>
+      <c r="I29">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J29">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>53.83825400000001</v>
+      </c>
+      <c r="N29">
+        <v>161.514762</v>
+      </c>
+      <c r="O29">
+        <v>0.6373531783474429</v>
+      </c>
+      <c r="P29">
+        <v>0.6373531783474429</v>
+      </c>
+      <c r="Q29">
+        <v>8834.437883994409</v>
+      </c>
+      <c r="R29">
+        <v>79509.94095594969</v>
+      </c>
+      <c r="S29">
+        <v>0.3350525595189989</v>
+      </c>
+      <c r="T29">
+        <v>0.3350525595189989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H30">
+        <v>492.276619</v>
+      </c>
+      <c r="I30">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J30">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.126792</v>
+      </c>
+      <c r="N30">
+        <v>6.380376</v>
+      </c>
+      <c r="O30">
+        <v>0.02517759288560722</v>
+      </c>
+      <c r="P30">
+        <v>0.02517759288560722</v>
+      </c>
+      <c r="Q30">
+        <v>348.9899916920827</v>
+      </c>
+      <c r="R30">
+        <v>3140.909925228744</v>
+      </c>
+      <c r="S30">
+        <v>0.01323570231613623</v>
+      </c>
+      <c r="T30">
+        <v>0.01323570231613623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>164.0922063333333</v>
+      </c>
+      <c r="H31">
+        <v>492.276619</v>
+      </c>
+      <c r="I31">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="J31">
+        <v>0.5256937141001443</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.234417666666667</v>
+      </c>
+      <c r="N31">
+        <v>3.703253</v>
+      </c>
+      <c r="O31">
+        <v>0.01461340152781021</v>
+      </c>
+      <c r="P31">
+        <v>0.01461340152781021</v>
+      </c>
+      <c r="Q31">
+        <v>202.5583184601786</v>
+      </c>
+      <c r="R31">
+        <v>1823.024866141607</v>
+      </c>
+      <c r="S31">
+        <v>0.007682173324791272</v>
+      </c>
+      <c r="T31">
+        <v>0.007682173324791272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.406739</v>
+      </c>
+      <c r="H32">
+        <v>7.220217</v>
+      </c>
+      <c r="I32">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J32">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.626869333333333</v>
+      </c>
+      <c r="N32">
+        <v>4.880608</v>
+      </c>
+      <c r="O32">
+        <v>0.01925936046061199</v>
+      </c>
+      <c r="P32">
+        <v>0.01925936046061199</v>
+      </c>
+      <c r="Q32">
+        <v>3.915449872437333</v>
+      </c>
+      <c r="R32">
+        <v>35.239048851936</v>
+      </c>
+      <c r="S32">
+        <v>0.0001484963184590655</v>
+      </c>
+      <c r="T32">
+        <v>0.0001484963184590655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.406739</v>
+      </c>
+      <c r="H33">
+        <v>7.220217</v>
+      </c>
+      <c r="I33">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J33">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.5129926666666668</v>
+      </c>
+      <c r="N33">
+        <v>1.538978</v>
+      </c>
+      <c r="O33">
+        <v>0.006072958951620725</v>
+      </c>
+      <c r="P33">
+        <v>0.006072958951620725</v>
+      </c>
+      <c r="Q33">
+        <v>1.234639457580667</v>
+      </c>
+      <c r="R33">
+        <v>11.111755118226</v>
+      </c>
+      <c r="S33">
+        <v>4.682461021034585E-05</v>
+      </c>
+      <c r="T33">
+        <v>4.682461021034585E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.406739</v>
+      </c>
+      <c r="H34">
+        <v>7.220217</v>
+      </c>
+      <c r="I34">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J34">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>25.132292</v>
+      </c>
+      <c r="N34">
+        <v>75.39687599999999</v>
+      </c>
+      <c r="O34">
+        <v>0.297523507826907</v>
+      </c>
+      <c r="P34">
+        <v>0.297523507826907</v>
+      </c>
+      <c r="Q34">
+        <v>60.48686731578799</v>
+      </c>
+      <c r="R34">
+        <v>544.3818058420919</v>
+      </c>
+      <c r="S34">
+        <v>0.002294008965545823</v>
+      </c>
+      <c r="T34">
+        <v>0.002294008965545823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.406739</v>
+      </c>
+      <c r="H35">
+        <v>7.220217</v>
+      </c>
+      <c r="I35">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J35">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>53.83825400000001</v>
+      </c>
+      <c r="N35">
+        <v>161.514762</v>
+      </c>
+      <c r="O35">
+        <v>0.6373531783474429</v>
+      </c>
+      <c r="P35">
+        <v>0.6373531783474429</v>
+      </c>
+      <c r="Q35">
+        <v>129.574625593706</v>
+      </c>
+      <c r="R35">
+        <v>1166.171630343354</v>
+      </c>
+      <c r="S35">
+        <v>0.004914213051691955</v>
+      </c>
+      <c r="T35">
+        <v>0.004914213051691955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.32922140286671</v>
-      </c>
-      <c r="H26">
-        <v>2.32922140286671</v>
-      </c>
-      <c r="I26">
-        <v>0.007782525880524646</v>
-      </c>
-      <c r="J26">
-        <v>0.007782525880524646</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.946606493608433</v>
-      </c>
-      <c r="N26">
-        <v>0.946606493608433</v>
-      </c>
-      <c r="O26">
-        <v>0.01269196828909607</v>
-      </c>
-      <c r="P26">
-        <v>0.01269196828909607</v>
-      </c>
-      <c r="Q26">
-        <v>2.204856105005372</v>
-      </c>
-      <c r="R26">
-        <v>2.204856105005372</v>
-      </c>
-      <c r="S26">
-        <v>9.877557168468827E-05</v>
-      </c>
-      <c r="T26">
-        <v>9.877557168468827E-05</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.406739</v>
+      </c>
+      <c r="H36">
+        <v>7.220217</v>
+      </c>
+      <c r="I36">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J36">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.126792</v>
+      </c>
+      <c r="N36">
+        <v>6.380376</v>
+      </c>
+      <c r="O36">
+        <v>0.02517759288560722</v>
+      </c>
+      <c r="P36">
+        <v>0.02517759288560722</v>
+      </c>
+      <c r="Q36">
+        <v>5.118633251288</v>
+      </c>
+      <c r="R36">
+        <v>46.067699261592</v>
+      </c>
+      <c r="S36">
+        <v>0.0001941279337296866</v>
+      </c>
+      <c r="T36">
+        <v>0.0001941279337296866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.406739</v>
+      </c>
+      <c r="H37">
+        <v>7.220217</v>
+      </c>
+      <c r="I37">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="J37">
+        <v>0.00771034525070345</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.234417666666667</v>
+      </c>
+      <c r="N37">
+        <v>3.703253</v>
+      </c>
+      <c r="O37">
+        <v>0.01461340152781021</v>
+      </c>
+      <c r="P37">
+        <v>0.01461340152781021</v>
+      </c>
+      <c r="Q37">
+        <v>2.970921140655666</v>
+      </c>
+      <c r="R37">
+        <v>26.738290265901</v>
+      </c>
+      <c r="S37">
+        <v>0.000112674371066574</v>
+      </c>
+      <c r="T37">
+        <v>0.000112674371066574</v>
       </c>
     </row>
   </sheetData>
